--- a/Excel Data/TDR/FloatingRateTermDepositsLCY.xlsx
+++ b/Excel Data/TDR/FloatingRateTermDepositsLCY.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/TDR/FloatingRateTermDepositsLCY.xlsx
+++ b/Excel Data/TDR/FloatingRateTermDepositsLCY.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>CUSTOMER.ID</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>PROFIT.EXEMP.LD</t>
+  </si>
+  <si>
+    <t>INTEND.DATE</t>
+  </si>
+  <si>
+    <t>CHRG.CODE:1</t>
+  </si>
+  <si>
+    <t>CHRG.AMOUNT:1</t>
   </si>
 </sst>
 </file>
@@ -363,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,9 +388,12 @@
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +418,20 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12105488</v>
       </c>
